--- a/plots/percentile_var.xlsx
+++ b/plots/percentile_var.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasba/repos/experimentscripts/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9563E9-C0A1-BB4C-8834-960254D4ADD1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83806CED-C266-7C49-B631-B519419952A2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{6D7B34B6-F784-1849-9D5F-CA16B9EF214F}"/>
   </bookViews>
@@ -16,11 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$1673</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$1673</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$1673</definedName>
     <definedName name="percentile_var_out" localSheetId="0">Sheet1!$A$2:$C$1673</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -55,7 +50,7 @@
     <t>Measured</t>
   </si>
   <si>
-    <t>Actual</t>
+    <t>Introduced</t>
   </si>
 </sst>
 </file>
@@ -10287,7 +10282,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Actual</c:v>
+                  <c:v>Introduced</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -20397,7 +20392,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -20410,7 +20405,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>s</a:t>
                 </a:r>
               </a:p>
@@ -20429,7 +20424,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -20514,7 +20509,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -20527,7 +20522,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>ms</a:t>
                 </a:r>
               </a:p>
@@ -20546,7 +20541,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -21582,7 +21577,7 @@
   <dimension ref="A1:C1673"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
